--- a/tests/testthat/_snaps/knitxl/plot1.new.xlsx
+++ b/tests/testthat/_snaps/knitxl/plot1.new.xlsx
@@ -76,7 +76,7 @@
       <xdr:row xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:row>
       <xdr:rowOff xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="5486400" cy="2743200"/>
+    <xdr:ext xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" cx="6400800" cy="6400800"/>
     <xdr:pic xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
       <xdr:nvPicPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
         <xdr:cNvPr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" id="1" name="Picture 1"/>
